--- a/_resources/maintenance/menu/menu.xlsx
+++ b/_resources/maintenance/menu/menu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Hilhorst\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace4\hungrybot\_resources\maintenance\menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D2206-EC15-4FF2-BBAA-1FE4E8B41A04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52297B64-55BD-472D-90BE-BE718CAAB397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{7D77838C-8EAC-433F-9AEA-10623E333D77}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>restaurantid</t>
   </si>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6AEC32-B2A7-490B-BAD0-1151CA6AB6BF}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -788,286 +788,6 @@
         <v>3.55</v>
       </c>
       <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>3.45</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>3.5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>3.5</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>5.55</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>4.45</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>6.45</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>7.1</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>3.65</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>4.5</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>4.5</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>2.5</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>3.5</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>2.65</v>
-      </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38">
-        <v>4.5</v>
-      </c>
-      <c r="D38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>4.55</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40">
-        <v>3.55</v>
-      </c>
-      <c r="D40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41">
-        <v>3.55</v>
-      </c>
-      <c r="D41">
         <v>20</v>
       </c>
     </row>
